--- a/H1299_143B_prot-nucl-quant/asp_fate.xlsx
+++ b/H1299_143B_prot-nucl-quant/asp_fate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krdav/Google Drive/MCB/Sullivan_lab/lab-work/H1299_143B_prot-nucl-quant/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{136E33BB-8D2A-E145-A997-F58CB161B9A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8AFF577-0983-3A4D-84AF-5A56A7122D06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2720" windowWidth="28800" windowHeight="13900" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="132">
   <si>
     <t>H1299</t>
   </si>
@@ -424,16 +424,51 @@
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>Arginine pos</t>
+  </si>
+  <si>
+    <t>Asn/AA uptake assay</t>
+  </si>
+  <si>
+    <t>Total cell conc.</t>
+  </si>
+  <si>
+    <t>J_Asn_prot</t>
+  </si>
+  <si>
+    <t>J_allAsn_out</t>
+  </si>
+  <si>
+    <t>Flux</t>
+  </si>
+  <si>
+    <t>Flux to total conv.</t>
+  </si>
+  <si>
+    <t>Acid hydrolysis (total cell conc.)</t>
+  </si>
+  <si>
+    <t>mM/h</t>
+  </si>
+  <si>
+    <t>Arg protein</t>
+  </si>
+  <si>
+    <t>Protein (Arg)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
     <numFmt numFmtId="166" formatCode="0.0E+00"/>
+    <numFmt numFmtId="172" formatCode="0.0000"/>
+    <numFmt numFmtId="173" formatCode="0.000"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -509,7 +544,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -543,11 +578,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -577,13 +621,21 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3860,396 +3912,696 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A47A286-DC8E-D14B-94A9-7E230954DBCC}">
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="6" max="6" width="14.5" customWidth="1"/>
+    <col min="7" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="14" x14ac:dyDescent="0.15">
-      <c r="B1" s="19" t="s">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B1" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="G1" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="L1" s="16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="2:14" ht="14" x14ac:dyDescent="0.15">
+      <c r="B2" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C2" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D2" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="E2" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="L2" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="M2" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="N2" s="19" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B2" t="s">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
         <v>99</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>-48.928361803517717</v>
       </c>
-      <c r="D2">
+      <c r="D3">
         <v>-67.95476473019221</v>
       </c>
-      <c r="H2" t="s">
+      <c r="E3">
+        <v>84.646766755783162</v>
+      </c>
+      <c r="G3">
+        <v>-1.728787778998496</v>
+      </c>
+      <c r="H3">
+        <v>-2.4010484402081111</v>
+      </c>
+      <c r="I3">
+        <v>2.9908276203233362</v>
+      </c>
+      <c r="L3" t="s">
         <v>1</v>
       </c>
-      <c r="I2">
+      <c r="M3">
         <v>122022.2223731272</v>
       </c>
-      <c r="J2">
+      <c r="N3">
         <v>38313.233572425786</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B3" t="s">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
         <v>100</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>-51.078550033880433</v>
       </c>
-      <c r="D3">
+      <c r="D4">
         <v>-66.613193384170856</v>
       </c>
-      <c r="H3" t="s">
+      <c r="E4">
+        <v>85.390886006371403</v>
+      </c>
+      <c r="G4">
+        <v>-1.792001228668112</v>
+      </c>
+      <c r="H4">
+        <v>-2.3370069101562572</v>
+      </c>
+      <c r="I4">
+        <v>2.995789280216012</v>
+      </c>
+      <c r="L4" t="s">
         <v>1</v>
       </c>
-      <c r="I3">
+      <c r="M4">
         <v>118559.38179306551</v>
       </c>
-      <c r="J3">
+      <c r="N4">
         <v>38445.294384899673</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B4" t="s">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
         <v>101</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>-45.833821372603097</v>
       </c>
-      <c r="D4">
+      <c r="D5">
         <v>-72.014141984260505</v>
       </c>
-      <c r="H4" t="s">
+      <c r="E5">
+        <v>82.457300052539182</v>
+      </c>
+      <c r="G5">
+        <v>-1.5748309455222109</v>
+      </c>
+      <c r="H5">
+        <v>-2.474375819334016</v>
+      </c>
+      <c r="I5">
+        <v>2.8331983657066351</v>
+      </c>
+      <c r="L5" t="s">
         <v>1</v>
       </c>
-      <c r="I4">
+      <c r="M5">
         <v>119470.4933218532</v>
       </c>
-      <c r="J4">
+      <c r="N5">
         <v>38246.891201741862</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B5" t="s">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
         <v>102</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>-39.677682423009237</v>
       </c>
-      <c r="D5">
+      <c r="D6">
         <v>-68.823249957266469</v>
       </c>
-      <c r="H5" t="s">
+      <c r="E6">
+        <v>74.299320419774887</v>
+      </c>
+      <c r="G6">
+        <v>-1.395958131862151</v>
+      </c>
+      <c r="H6">
+        <v>-2.4213706439495488</v>
+      </c>
+      <c r="I6">
+        <v>2.6140322266320042</v>
+      </c>
+      <c r="L6" t="s">
         <v>1</v>
       </c>
-      <c r="I5">
+      <c r="M6">
         <v>118001.6462051688</v>
       </c>
-      <c r="J5">
+      <c r="N6">
         <v>37624.400062232031</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B6" t="s">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
         <v>103</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>-42.824356978403117</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <v>-67.847010942551023</v>
       </c>
-      <c r="H6" t="s">
+      <c r="E7">
+        <v>84.130656540583146</v>
+      </c>
+      <c r="G7">
+        <v>-1.5060712589382019</v>
+      </c>
+      <c r="H7">
+        <v>-2.3860821363172762</v>
+      </c>
+      <c r="I7">
+        <v>2.9587546142321148</v>
+      </c>
+      <c r="L7" t="s">
         <v>1</v>
       </c>
-      <c r="I6">
+      <c r="M7">
         <v>121115.08471373731</v>
       </c>
-      <c r="J6">
+      <c r="N7">
         <v>38267.465210771152</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B7" t="s">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
         <v>104</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <v>-46.321344965853733</v>
       </c>
-      <c r="D7">
+      <c r="D8">
         <v>-70.186617189993839</v>
       </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="C9">
-        <f>AVERAGE(C2:C7)*-1</f>
+      <c r="E8">
+        <v>84.286624853111618</v>
+      </c>
+      <c r="G8">
+        <v>-1.590718513945256</v>
+      </c>
+      <c r="H8">
+        <v>-2.4102743881381992</v>
+      </c>
+      <c r="I8">
+        <v>2.8944819009603191</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="C10">
+        <f>AVERAGE(C3:C8)*-1</f>
         <v>45.777352929544548</v>
       </c>
-      <c r="D9">
-        <f>AVERAGE(D2:D7)*-1</f>
+      <c r="D10">
+        <f>AVERAGE(D3:D8)*-1</f>
         <v>68.906496364739155</v>
       </c>
-      <c r="I9">
-        <f>AVERAGE(I2:I6)/1000</f>
+      <c r="E10">
+        <f>AVERAGE(E3:E8)</f>
+        <v>82.535259104693893</v>
+      </c>
+      <c r="G10">
+        <f>AVERAGE(G3:G8)*-1</f>
+        <v>1.5980613096557379</v>
+      </c>
+      <c r="H10">
+        <f>AVERAGE(H3:H8)*-1</f>
+        <v>2.405026389683901</v>
+      </c>
+      <c r="I10">
+        <f>AVERAGE(I3:I8)</f>
+        <v>2.8811806680117367</v>
+      </c>
+      <c r="M10">
+        <f>AVERAGE(M3:M7)/1000</f>
         <v>119.83376568139042</v>
       </c>
-      <c r="J9">
-        <f>AVERAGE(J2:J6)/1000</f>
+      <c r="N10">
+        <f>AVERAGE(N3:N7)/1000</f>
         <v>38.179456886414101</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B16" s="16" t="s">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="L11" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="M11">
+        <f>$G$12*M10</f>
+        <v>4.1833284860424298</v>
+      </c>
+      <c r="N11">
+        <f>$G$12*N10</f>
+        <v>1.3328230876029976</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="F12" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="G12" s="28">
+        <f>G10/C10</f>
+        <v>3.4909430261625164E-2</v>
+      </c>
+      <c r="H12" s="28">
+        <f>H10/D10</f>
+        <v>3.4902752520654952E-2</v>
+      </c>
+      <c r="I12" s="28">
+        <f>I10/E10</f>
+        <v>3.4908482741382467E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B17" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C17" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D17" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E17" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="F17" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="G16" s="16" t="s">
+      <c r="G17" s="16" t="s">
         <v>110</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="B17" s="25">
-        <v>119.83376568139042</v>
-      </c>
-      <c r="C17" s="25">
-        <f>B17-D17</f>
-        <v>74.056412751845869</v>
-      </c>
-      <c r="D17" s="25">
-        <v>45.777352929544548</v>
-      </c>
-      <c r="E17" s="25">
-        <v>68.906496364739155</v>
-      </c>
-      <c r="F17" s="25">
-        <v>38.179456886414101</v>
-      </c>
-      <c r="G17" s="25">
-        <f>F17</f>
-        <v>38.179456886414101</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="B18" s="25">
+        <v>119.83376568139042</v>
+      </c>
+      <c r="C18" s="25">
+        <f>B18-D18</f>
+        <v>74.056412751845926</v>
+      </c>
+      <c r="D18" s="25">
+        <v>45.777352929544499</v>
+      </c>
+      <c r="E18" s="25">
+        <v>68.906496364739198</v>
+      </c>
+      <c r="F18" s="25">
+        <v>38.179456886414101</v>
+      </c>
+      <c r="G18" s="25">
+        <f>F18</f>
+        <v>38.179456886414101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A19" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="B18" s="25">
-        <f>B17/(SUM($C$17:$G$17)-$E$17) *100</f>
+      <c r="B19" s="25">
+        <f>B18/(SUM($C$18:$G$18)-$E$18) *100</f>
         <v>61.079631520784403</v>
       </c>
-      <c r="C18" s="25">
-        <f t="shared" ref="C18:G18" si="0">C17/(SUM($C$17:$G$17)-$E$17) *100</f>
-        <v>37.746776769582205</v>
-      </c>
-      <c r="D18" s="25">
+      <c r="C19" s="25">
+        <f t="shared" ref="C19:G19" si="0">C18/(SUM($C$18:$G$18)-$E$18) *100</f>
+        <v>37.746776769582233</v>
+      </c>
+      <c r="D19" s="25">
         <f t="shared" si="0"/>
-        <v>23.332854751202202</v>
-      </c>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25">
+        <v>23.332854751202177</v>
+      </c>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25">
         <f t="shared" si="0"/>
         <v>19.460184239607802</v>
       </c>
-      <c r="G18" s="25">
+      <c r="G19" s="25">
         <f t="shared" si="0"/>
         <v>19.460184239607802</v>
       </c>
-      <c r="H18" s="25">
-        <f>SUM(C18:G18)</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="B19" s="25">
-        <f>B17/(SUM($C$17:$G$17)) *100</f>
-        <v>45.203371648061108</v>
-      </c>
-      <c r="C19" s="25">
-        <f t="shared" ref="C19:G19" si="1">C17/(SUM($C$17:$G$17)) *100</f>
-        <v>27.935361369218541</v>
-      </c>
-      <c r="D19" s="25">
-        <f t="shared" si="1"/>
-        <v>17.268010278842567</v>
-      </c>
-      <c r="E19" s="25">
-        <f t="shared" si="1"/>
-        <v>25.992723723817594</v>
-      </c>
-      <c r="F19" s="25">
-        <f t="shared" si="1"/>
-        <v>14.401952314060651</v>
-      </c>
-      <c r="G19" s="25">
-        <f t="shared" si="1"/>
-        <v>14.401952314060651</v>
-      </c>
       <c r="H19" s="25">
         <f>SUM(C19:G19)</f>
-        <v>100</v>
+        <v>100.00000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="B20" s="25">
+        <f>B18/(SUM($C$18:$G$18)) *100</f>
+        <v>45.203371648061093</v>
+      </c>
+      <c r="C20" s="25">
+        <f t="shared" ref="C20:G20" si="1">C18/(SUM($C$18:$G$18)) *100</f>
+        <v>27.935361369218558</v>
+      </c>
+      <c r="D20" s="25">
+        <f t="shared" si="1"/>
+        <v>17.268010278842542</v>
+      </c>
+      <c r="E20" s="25">
+        <f t="shared" si="1"/>
+        <v>25.992723723817608</v>
+      </c>
+      <c r="F20" s="25">
+        <f t="shared" si="1"/>
+        <v>14.401952314060647</v>
+      </c>
+      <c r="G20" s="25">
+        <f t="shared" si="1"/>
+        <v>14.401952314060647</v>
+      </c>
+      <c r="H20" s="25">
+        <f>SUM(C20:G20)</f>
+        <v>100.00000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B23" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B24" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="D24">
+        <v>37.746776769582205</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B25" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="D25">
+        <v>23.332854751202202</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B26" s="16" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="D26" s="16" t="s">
-        <v>113</v>
+        <v>115</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B27" s="16" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="C27" s="16" t="s">
         <v>115</v>
       </c>
       <c r="D27">
-        <v>37.746776769582205</v>
+        <v>19.460184239607802</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B28" s="16" t="s">
-        <v>118</v>
+        <v>88</v>
       </c>
       <c r="C28" s="16" t="s">
         <v>115</v>
       </c>
       <c r="D28">
-        <v>23.332854751202202</v>
+        <v>19.460184239607802</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B29" s="16" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>27.935361369218541</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B30" s="16" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D30">
-        <v>19.460184239607802</v>
+        <v>17.268010278842567</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B31" s="16" t="s">
-        <v>88</v>
+        <v>119</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D31">
-        <v>19.460184239607802</v>
+        <v>25.992723723817594</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B32" s="16" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="C32" s="16" t="s">
         <v>120</v>
       </c>
       <c r="D32">
-        <v>27.935361369218541</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.15">
+        <v>14.401952314060651</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B33" s="16" t="s">
-        <v>118</v>
+        <v>88</v>
       </c>
       <c r="C33" s="16" t="s">
         <v>120</v>
       </c>
       <c r="D33">
-        <v>17.268010278842567</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B34" s="16" t="s">
+        <v>14.401952314060651</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B39" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="D39" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="E39" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="F39" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="G39" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="H39" s="16" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A40" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="B40" s="29">
+        <f>M11</f>
+        <v>4.1833284860424298</v>
+      </c>
+      <c r="C40" s="29">
+        <f>G10</f>
+        <v>1.5980613096557379</v>
+      </c>
+      <c r="D40" s="29">
+        <f>I10</f>
+        <v>2.8811806680117367</v>
+      </c>
+      <c r="E40" s="29">
+        <f>B40-C40</f>
+        <v>2.5852671763866919</v>
+      </c>
+      <c r="F40" s="29">
+        <f>H10</f>
+        <v>2.405026389683901</v>
+      </c>
+      <c r="G40" s="29">
+        <f>N11</f>
+        <v>1.3328230876029976</v>
+      </c>
+      <c r="H40" s="29">
+        <f>N11</f>
+        <v>1.3328230876029976</v>
+      </c>
+      <c r="I40" s="25"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B43" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="D43" s="16" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B44" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="C44" s="29">
+        <f>D40</f>
+        <v>2.8811806680117367</v>
+      </c>
+      <c r="D44" s="25">
+        <f>C44/SUM($C$44:$C$49)*100</f>
+        <v>23.742377615276787</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B45" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="C45" s="29">
+        <f>E40</f>
+        <v>2.5852671763866919</v>
+      </c>
+      <c r="D45" s="25">
+        <f t="shared" ref="D45:D49" si="2">C45/SUM($C$44:$C$49)*100</f>
+        <v>21.303901632975688</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B46" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="C34" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="D34">
-        <v>25.992723723817594</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B35" s="16" t="s">
+      <c r="C46" s="29">
+        <f>F40</f>
+        <v>2.405026389683901</v>
+      </c>
+      <c r="D46" s="25">
+        <f t="shared" si="2"/>
+        <v>19.818626909636201</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B47" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="C47" s="29">
+        <f>C40</f>
+        <v>1.5980613096557379</v>
+      </c>
+      <c r="D47" s="25">
+        <f t="shared" si="2"/>
+        <v>13.16882883723963</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B48" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="C35" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="D35">
-        <v>14.401952314060651</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B36" s="16" t="s">
+      <c r="C48" s="29">
+        <f>G40</f>
+        <v>1.3328230876029976</v>
+      </c>
+      <c r="D48" s="25">
+        <f t="shared" si="2"/>
+        <v>10.983132502435838</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B49" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="C36" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="D36">
-        <v>14.401952314060651</v>
+      <c r="C49" s="29">
+        <f>H40</f>
+        <v>1.3328230876029976</v>
+      </c>
+      <c r="D49" s="25">
+        <f t="shared" si="2"/>
+        <v>10.983132502435838</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="G1:I1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/H1299_143B_prot-nucl-quant/asp_fate.xlsx
+++ b/H1299_143B_prot-nucl-quant/asp_fate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krdav/Google Drive/MCB/Sullivan_lab/lab-work/H1299_143B_prot-nucl-quant/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8AFF577-0983-3A4D-84AF-5A56A7122D06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19546BD4-2C4D-9F4A-8A02-D99EAF2013AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2720" windowWidth="28800" windowHeight="13900" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="133">
   <si>
     <t>H1299</t>
   </si>
@@ -457,6 +457,9 @@
   </si>
   <si>
     <t>Protein (Arg)</t>
+  </si>
+  <si>
+    <t>Efflux (Asn)*</t>
   </si>
 </sst>
 </file>
@@ -467,8 +470,8 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
     <numFmt numFmtId="166" formatCode="0.0E+00"/>
-    <numFmt numFmtId="172" formatCode="0.0000"/>
-    <numFmt numFmtId="173" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="0.0000"/>
+    <numFmt numFmtId="168" formatCode="0.000"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -628,14 +631,14 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3914,8 +3917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A47A286-DC8E-D14B-94A9-7E230954DBCC}">
   <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3929,16 +3932,16 @@
       <c r="B1" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="G1" s="27" t="s">
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="G1" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
       <c r="L1" s="16" t="s">
         <v>128</v>
       </c>
@@ -4209,15 +4212,15 @@
       <c r="F12" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="G12" s="28">
+      <c r="G12" s="26">
         <f>G10/C10</f>
         <v>3.4909430261625164E-2</v>
       </c>
-      <c r="H12" s="28">
+      <c r="H12" s="26">
         <f>H10/D10</f>
         <v>3.4902752520654952E-2</v>
       </c>
-      <c r="I12" s="28">
+      <c r="I12" s="26">
         <f>I10/E10</f>
         <v>3.4908482741382467E-2</v>
       </c>
@@ -4263,8 +4266,8 @@
         <v>38.179456886414101</v>
       </c>
       <c r="G18" s="25">
-        <f>F18</f>
-        <v>38.179456886414101</v>
+        <f>F18*1.5</f>
+        <v>57.269185329621152</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
@@ -4273,24 +4276,24 @@
       </c>
       <c r="B19" s="25">
         <f>B18/(SUM($C$18:$G$18)-$E$18) *100</f>
-        <v>61.079631520784403</v>
+        <v>55.663519770034775</v>
       </c>
       <c r="C19" s="25">
         <f t="shared" ref="C19:G19" si="0">C18/(SUM($C$18:$G$18)-$E$18) *100</f>
-        <v>37.746776769582233</v>
+        <v>34.399658325603248</v>
       </c>
       <c r="D19" s="25">
         <f t="shared" si="0"/>
-        <v>23.332854751202177</v>
+        <v>21.263861444431527</v>
       </c>
       <c r="E19" s="25"/>
       <c r="F19" s="25">
         <f t="shared" si="0"/>
-        <v>19.460184239607802</v>
+        <v>17.734592091986098</v>
       </c>
       <c r="G19" s="25">
-        <f t="shared" si="0"/>
-        <v>19.460184239607802</v>
+        <f>G18/(SUM($C$18:$G$18)-$E$18) *100</f>
+        <v>26.601888137979145</v>
       </c>
       <c r="H19" s="25">
         <f>SUM(C19:G19)</f>
@@ -4303,31 +4306,31 @@
       </c>
       <c r="B20" s="25">
         <f>B18/(SUM($C$18:$G$18)) *100</f>
-        <v>45.203371648061093</v>
+        <v>42.166940328832659</v>
       </c>
       <c r="C20" s="25">
         <f t="shared" ref="C20:G20" si="1">C18/(SUM($C$18:$G$18)) *100</f>
-        <v>27.935361369218558</v>
+        <v>26.05886846431159</v>
       </c>
       <c r="D20" s="25">
         <f t="shared" si="1"/>
-        <v>17.268010278842542</v>
+        <v>16.108071864521069</v>
       </c>
       <c r="E20" s="25">
         <f t="shared" si="1"/>
-        <v>25.992723723817608</v>
+        <v>24.246722982953909</v>
       </c>
       <c r="F20" s="25">
         <f t="shared" si="1"/>
-        <v>14.401952314060647</v>
+        <v>13.434534675285379</v>
       </c>
       <c r="G20" s="25">
         <f t="shared" si="1"/>
-        <v>14.401952314060647</v>
+        <v>20.151802012928066</v>
       </c>
       <c r="H20" s="25">
         <f>SUM(C20:G20)</f>
-        <v>100.00000000000001</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
@@ -4478,33 +4481,33 @@
       <c r="A40" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="B40" s="29">
+      <c r="B40" s="27">
         <f>M11</f>
         <v>4.1833284860424298</v>
       </c>
-      <c r="C40" s="29">
+      <c r="C40" s="27">
         <f>G10</f>
         <v>1.5980613096557379</v>
       </c>
-      <c r="D40" s="29">
+      <c r="D40" s="27">
         <f>I10</f>
         <v>2.8811806680117367</v>
       </c>
-      <c r="E40" s="29">
+      <c r="E40" s="27">
         <f>B40-C40</f>
         <v>2.5852671763866919</v>
       </c>
-      <c r="F40" s="29">
+      <c r="F40" s="27">
         <f>H10</f>
         <v>2.405026389683901</v>
       </c>
-      <c r="G40" s="29">
+      <c r="G40" s="27">
         <f>N11</f>
         <v>1.3328230876029976</v>
       </c>
-      <c r="H40" s="29">
-        <f>N11</f>
-        <v>1.3328230876029976</v>
+      <c r="H40" s="27">
+        <f>N11*1.5</f>
+        <v>1.9992346314044964</v>
       </c>
       <c r="I40" s="25"/>
     </row>
@@ -4523,78 +4526,78 @@
       <c r="B44" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="C44" s="29">
+      <c r="C44" s="27">
         <f>D40</f>
         <v>2.8811806680117367</v>
       </c>
       <c r="D44" s="25">
         <f>C44/SUM($C$44:$C$49)*100</f>
-        <v>23.742377615276787</v>
+        <v>22.506422512238206</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B45" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="C45" s="29">
+      <c r="C45" s="27">
         <f>E40</f>
         <v>2.5852671763866919</v>
       </c>
       <c r="D45" s="25">
         <f t="shared" ref="D45:D49" si="2">C45/SUM($C$44:$C$49)*100</f>
-        <v>21.303901632975688</v>
+        <v>20.194886084298453</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B46" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="C46" s="29">
+        <v>132</v>
+      </c>
+      <c r="C46" s="27">
         <f>F40</f>
         <v>2.405026389683901</v>
       </c>
       <c r="D46" s="25">
         <f t="shared" si="2"/>
-        <v>19.818626909636201</v>
+        <v>18.786930191594713</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B47" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="C47" s="29">
+      <c r="C47" s="27">
         <f>C40</f>
         <v>1.5980613096557379</v>
       </c>
       <c r="D47" s="25">
         <f t="shared" si="2"/>
-        <v>13.16882883723963</v>
+        <v>12.483300139728085</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B48" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="C48" s="29">
+      <c r="C48" s="27">
         <f>G40</f>
         <v>1.3328230876029976</v>
       </c>
       <c r="D48" s="25">
         <f t="shared" si="2"/>
-        <v>10.983132502435838</v>
+        <v>10.411384428856213</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B49" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="C49" s="29">
+      <c r="C49" s="27">
         <f>H40</f>
-        <v>1.3328230876029976</v>
+        <v>1.9992346314044964</v>
       </c>
       <c r="D49" s="25">
         <f t="shared" si="2"/>
-        <v>10.983132502435838</v>
+        <v>15.617076643284319</v>
       </c>
     </row>
   </sheetData>
